--- a/Employee_Reports35/Mohamed Nasardeen Mohamadu Main Q0436.xlsx
+++ b/Employee_Reports35/Mohamed Nasardeen Mohamadu Main Q0436.xlsx
@@ -572,11 +572,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -621,11 +621,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -670,11 +670,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -719,11 +719,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -768,11 +768,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -817,11 +817,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -866,11 +866,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -915,11 +915,11 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
@@ -964,11 +964,11 @@
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
@@ -1013,11 +1013,11 @@
         </is>
       </c>
       <c r="H12" s="3" t="n">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
@@ -1062,11 +1062,11 @@
         </is>
       </c>
       <c r="H13" s="3" t="n">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="I13" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J13" s="3" t="inlineStr">
@@ -1111,11 +1111,11 @@
         </is>
       </c>
       <c r="H14" s="3" t="n">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
@@ -1152,20 +1152,20 @@
       </c>
       <c r="F15" s="3" t="inlineStr">
         <is>
-          <t>12-Jun-2025</t>
+          <t>21-Sep-2025</t>
         </is>
       </c>
       <c r="G15" s="3" t="inlineStr">
         <is>
-          <t>12-Jun-2026</t>
+          <t>21-Sep-2026</t>
         </is>
       </c>
       <c r="H15" s="3" t="n">
-        <v>221</v>
+        <v>321</v>
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J15" s="3" t="inlineStr">
@@ -1210,11 +1210,11 @@
         </is>
       </c>
       <c r="H16" s="3" t="n">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I16" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J16" s="3" t="inlineStr">
@@ -1259,11 +1259,11 @@
         </is>
       </c>
       <c r="H17" s="3" t="n">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I17" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J17" s="3" t="inlineStr">
@@ -1296,11 +1296,11 @@
         </is>
       </c>
       <c r="H18" s="3" t="n">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I18" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J18" s="3" t="inlineStr">
@@ -1345,11 +1345,11 @@
         </is>
       </c>
       <c r="H19" s="3" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I19" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J19" s="3" t="inlineStr">
@@ -1394,11 +1394,11 @@
         </is>
       </c>
       <c r="H20" s="3" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I20" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J20" s="3" t="inlineStr">
@@ -1443,11 +1443,11 @@
         </is>
       </c>
       <c r="H21" s="3" t="n">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I21" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J21" s="3" t="inlineStr">
@@ -1492,11 +1492,11 @@
         </is>
       </c>
       <c r="H22" s="3" t="n">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I22" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J22" s="3" t="inlineStr">
@@ -1541,11 +1541,11 @@
         </is>
       </c>
       <c r="H23" s="3" t="n">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I23" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J23" s="3" t="inlineStr">
@@ -1590,11 +1590,11 @@
         </is>
       </c>
       <c r="H24" s="3" t="n">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I24" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J24" s="3" t="inlineStr">
@@ -1639,11 +1639,11 @@
         </is>
       </c>
       <c r="H25" s="3" t="n">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I25" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J25" s="3" t="inlineStr">
@@ -1688,11 +1688,11 @@
         </is>
       </c>
       <c r="H26" s="3" t="n">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I26" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J26" s="3" t="inlineStr">
@@ -1725,11 +1725,11 @@
         </is>
       </c>
       <c r="H27" s="3" t="n">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I27" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J27" s="3" t="inlineStr">

--- a/Employee_Reports35/Mohamed Nasardeen Mohamadu Main Q0436.xlsx
+++ b/Employee_Reports35/Mohamed Nasardeen Mohamadu Main Q0436.xlsx
@@ -572,11 +572,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -621,11 +621,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -670,11 +670,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -719,11 +719,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -768,11 +768,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -817,11 +817,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -866,11 +866,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -915,11 +915,11 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
@@ -964,11 +964,11 @@
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
@@ -1013,11 +1013,11 @@
         </is>
       </c>
       <c r="H12" s="3" t="n">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
@@ -1062,11 +1062,11 @@
         </is>
       </c>
       <c r="H13" s="3" t="n">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="I13" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J13" s="3" t="inlineStr">
@@ -1111,11 +1111,11 @@
         </is>
       </c>
       <c r="H14" s="3" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
@@ -1161,11 +1161,11 @@
         </is>
       </c>
       <c r="H15" s="3" t="n">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J15" s="3" t="inlineStr">
@@ -1210,11 +1210,11 @@
         </is>
       </c>
       <c r="H16" s="3" t="n">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I16" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J16" s="3" t="inlineStr">
@@ -1259,11 +1259,11 @@
         </is>
       </c>
       <c r="H17" s="3" t="n">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="I17" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J17" s="3" t="inlineStr">
@@ -1296,11 +1296,11 @@
         </is>
       </c>
       <c r="H18" s="3" t="n">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I18" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J18" s="3" t="inlineStr">
@@ -1345,11 +1345,11 @@
         </is>
       </c>
       <c r="H19" s="3" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I19" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J19" s="3" t="inlineStr">
@@ -1394,11 +1394,11 @@
         </is>
       </c>
       <c r="H20" s="3" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I20" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J20" s="3" t="inlineStr">
@@ -1443,11 +1443,11 @@
         </is>
       </c>
       <c r="H21" s="3" t="n">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I21" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J21" s="3" t="inlineStr">
@@ -1492,11 +1492,11 @@
         </is>
       </c>
       <c r="H22" s="3" t="n">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I22" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J22" s="3" t="inlineStr">
@@ -1541,11 +1541,11 @@
         </is>
       </c>
       <c r="H23" s="3" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I23" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J23" s="3" t="inlineStr">
@@ -1590,11 +1590,11 @@
         </is>
       </c>
       <c r="H24" s="3" t="n">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I24" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J24" s="3" t="inlineStr">
@@ -1639,11 +1639,11 @@
         </is>
       </c>
       <c r="H25" s="3" t="n">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I25" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J25" s="3" t="inlineStr">
@@ -1688,11 +1688,11 @@
         </is>
       </c>
       <c r="H26" s="3" t="n">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I26" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J26" s="3" t="inlineStr">
@@ -1725,11 +1725,11 @@
         </is>
       </c>
       <c r="H27" s="3" t="n">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I27" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J27" s="3" t="inlineStr">
